--- a/Output/Archive/08302017/request1.xlsx
+++ b/Output/Archive/08302017/request1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>Asset Name</t>
   </si>
@@ -40,21 +40,132 @@
     <t>Relation</t>
   </si>
   <si>
+    <t>Complex Relations - Relation Type</t>
+  </si>
+  <si>
+    <t>Complex Relations - Relation</t>
+  </si>
+  <si>
+    <t>Complex Relations - Attribute Type</t>
+  </si>
+  <si>
+    <t>Complex Relations - Attribute</t>
+  </si>
+  <si>
+    <t>FRY 14 Q</t>
+  </si>
+  <si>
+    <t>CCAR Reporting Community</t>
+  </si>
+  <si>
+    <t>Financial Reporting</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t>Schedule A  – Retail</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Schedule B  – Securities</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Schedule H —Wholesale Risk</t>
+  </si>
+  <si>
+    <t>Descriptive Example</t>
+  </si>
+  <si>
+    <t>Schedule C —Regulatory Capital Instruments</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Schedule D —Regulatory Capital Transitions</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Schedule E —Operational Risk</t>
+  </si>
+  <si>
+    <t>Inclusion Scenario</t>
+  </si>
+  <si>
+    <t>Schedule F —Trading</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Schedule G - PPNR</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>is a part of</t>
+  </si>
+  <si>
+    <t>Security Classification</t>
+  </si>
+  <si>
+    <t>contained in</t>
+  </si>
+  <si>
+    <t>Last Review Date</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>grouped by</t>
+  </si>
+  <si>
+    <t>classifies</t>
+  </si>
+  <si>
+    <t>is classified by</t>
+  </si>
+  <si>
+    <t>associates</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>produces</t>
+  </si>
+  <si>
+    <t>is produced by</t>
+  </si>
+  <si>
     <t>01. Amortized Cost (USD Equivalent)</t>
   </si>
   <si>
-    <t>CCAR Reporting Community</t>
-  </si>
-  <si>
-    <t>Financial Reporting</t>
-  </si>
-  <si>
     <t>Data Point</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t xml:space="preserve"> In general, amortized cost is the purchase price of a debt security adjusted for amortization of premium or accretion of discount if the debt security was purchased at other than par or face value (for more information, refer to the FR Y - 9C Glossary entry for “premiums and discounts”).  </t>
   </si>
   <si>
@@ -79,10 +190,109 @@
     <t>Consists of</t>
   </si>
   <si>
-    <t>is a part of</t>
-  </si>
-  <si>
     <t>B.01 — Securities 1 (“Main Schedule”)</t>
+  </si>
+  <si>
+    <t>Financial Reporting Data Assets</t>
+  </si>
+  <si>
+    <t>Data Element</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>Output Variables</t>
+  </si>
+  <si>
+    <t>1. purchase price of a debt security = no: of securities * unit price2. adjusted purchase price of a debt security =  discounts = 10% of purchase price of a debt security (rate variable by Fed)purchase price of a debt security - discounts3. If "purchase price of a debt security" &amp;gt; = "face value"  accretion of discountelse   adjusted purchase price of a debt security</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>co_Output Variables</t>
+  </si>
+  <si>
+    <t>3783ce2e-cf9a-460b-a626-666e63958df9</t>
+  </si>
+  <si>
+    <t>Input Variables</t>
+  </si>
+  <si>
+    <t>Accretion of discount</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Adjusted purchase price</t>
+  </si>
+  <si>
+    <t>Testr</t>
+  </si>
+  <si>
+    <t>Face value</t>
+  </si>
+  <si>
+    <t>Test Description.</t>
+  </si>
+  <si>
+    <t>03. Amortized Cost (USD Equivalent)</t>
+  </si>
+  <si>
+    <t>Purchase price</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If "purchase price of a debt security" &amp;gt; = "face value"   accretion of discount else       adjusted purchase price of a debt security</t>
+  </si>
+  <si>
+    <t>allowed value</t>
+  </si>
+  <si>
+    <t>Data Type Precision</t>
+  </si>
+  <si>
+    <t>allowed value for</t>
+  </si>
+  <si>
+    <t>allowed value set</t>
+  </si>
+  <si>
+    <t>applies to</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>represents</t>
+  </si>
+  <si>
+    <t>represented by</t>
+  </si>
+  <si>
+    <t>implemented in</t>
+  </si>
+  <si>
+    <t>implements</t>
+  </si>
+  <si>
+    <t>governed by</t>
+  </si>
+  <si>
+    <t>governs</t>
+  </si>
+  <si>
+    <t>is calculated using</t>
+  </si>
+  <si>
+    <t>is used for calculating</t>
   </si>
 </sst>
 </file>
@@ -418,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +636,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,73 +661,464 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s"/>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s"/>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s"/>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s"/>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s"/>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="11" spans="1:12">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="E3" t="s">
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s"/>
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="F28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="F30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s"/>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s"/>
+      <c r="G34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" t="s"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s"/>
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s"/>
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" t="s"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="G37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="G39" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" t="s"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" t="s"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="G42" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" t="s"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" t="s"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="G44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" t="s"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B2:B20"/>
+    <mergeCell ref="C2:C20"/>
+    <mergeCell ref="D2:D20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="A27:A45"/>
+    <mergeCell ref="B27:B45"/>
+    <mergeCell ref="C27:C45"/>
+    <mergeCell ref="D27:D45"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
